--- a/autoConditions/train2Block1.xlsx
+++ b/autoConditions/train2Block1.xlsx
@@ -449,72 +449,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainaudio/10_tokiti.wav</t>
+          <t>trainaudio/13_kopopi.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/100_bicycle.png</t>
+          <t>pngimages/13_toast.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainaudio/18_popata.wav</t>
+          <t>trainaudio/10_tokiti.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/18_donut.png</t>
+          <t>pngimages/100_bicycle.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainaudio/14_pokoto.wav</t>
+          <t>trainaudio/23_patoko.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/14_coffee.png</t>
+          <t>pngimages/23_lemon.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainaudio/25_tapapi.wav</t>
+          <t>trainaudio/26_kapako.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pngimages/25_apple.png</t>
+          <t>pngimages/26_pineapple.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainaudio/24_takopa.wav</t>
+          <t>trainaudio/18_popata.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/24_banana.png</t>
+          <t>pngimages/18_donut.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainaudio/15_kopota.wav</t>
+          <t>trainaudio/14_pokoto.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/15_barrel.png</t>
+          <t>pngimages/14_coffee.png</t>
         </is>
       </c>
     </row>
@@ -533,24 +533,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>trainaudio/21_papika.wav</t>
+          <t>trainaudio/22_kakoki.wav</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pngimages/21_cheese.png</t>
+          <t>pngimages/22_egg.png</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>trainaudio/16_kotapi.wav</t>
+          <t>trainaudio/05_titopo.wav</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pngimages/16_icecream.png</t>
+          <t>pngimages/05_megaphone.png</t>
         </is>
       </c>
     </row>

--- a/autoConditions/train2Block1.xlsx
+++ b/autoConditions/train2Block1.xlsx
@@ -449,108 +449,108 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainaudio/13_kopopi.wav</t>
+          <t>trainingaudio/07_pitapi2.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/13_toast.png</t>
+          <t>pngimages/07_suitcase.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainaudio/10_tokiti.wav</t>
+          <t>trainingaudio/15_kopota3.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/100_bicycle.png</t>
+          <t>pngimages/15_barrel.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainaudio/23_patoko.wav</t>
+          <t>trainingaudio/21_papika1.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/23_lemon.png</t>
+          <t>pngimages/21_cheese.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainaudio/26_kapako.wav</t>
+          <t>trainingaudio/18_popata2.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pngimages/26_pineapple.png</t>
+          <t>pngimages/18_donut.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainaudio/18_popata.wav</t>
+          <t>trainingaudio/01_kitipi1.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/18_donut.png</t>
+          <t>pngimages/01_gift.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainaudio/14_pokoto.wav</t>
+          <t>trainingaudio/06_titoka3.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/14_coffee.png</t>
+          <t>pngimages/06_tent.png</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>trainaudio/11_tokiko.wav</t>
+          <t>trainingaudio/19_papipi1.wav</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pngimages/11_compass.png</t>
+          <t>pngimages/19_burger.png</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>trainaudio/22_kakoki.wav</t>
+          <t>trainingaudio/04_kitoti2.wav</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pngimages/22_egg.png</t>
+          <t>pngimages/04_ladder.png</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>trainaudio/05_titopo.wav</t>
+          <t>trainingaudio/20_tatito1.wav</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pngimages/05_megaphone.png</t>
+          <t>pngimages/20_pizza.png</t>
         </is>
       </c>
     </row>

--- a/autoConditions/train2Block1.xlsx
+++ b/autoConditions/train2Block1.xlsx
@@ -449,84 +449,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainingaudio/07_pitapi2.wav</t>
+          <t>trainingaudio/12_pokika3.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/07_suitcase.png</t>
+          <t>pngimages/12_pie.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainingaudio/15_kopota3.wav</t>
+          <t>trainingaudio/03_kikita3.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/15_barrel.png</t>
+          <t>pngimages/03_box.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainingaudio/21_papika1.wav</t>
+          <t>trainingaudio/26_kapako1.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/21_cheese.png</t>
+          <t>pngimages/26_pineapple.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainingaudio/18_popata2.wav</t>
+          <t>trainingaudio/05_titopo2.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pngimages/18_donut.png</t>
+          <t>pngimages/05_megaphone.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainingaudio/01_kitipi1.wav</t>
+          <t>trainingaudio/20_tatito1.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/01_gift.png</t>
+          <t>pngimages/20_pizza.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainingaudio/06_titoka3.wav</t>
+          <t>trainingaudio/10_tokiti1.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/06_tent.png</t>
+          <t>pngimages/10_backpack.png</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>trainingaudio/19_papipi1.wav</t>
+          <t>trainingaudio/15_kopota3.wav</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pngimages/19_burger.png</t>
+          <t>pngimages/15_barrel.png</t>
         </is>
       </c>
     </row>
@@ -545,12 +545,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>trainingaudio/20_tatito1.wav</t>
+          <t>trainingaudio/16_kotapi2.wav</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pngimages/20_pizza.png</t>
+          <t>pngimages/16_icecream.png</t>
         </is>
       </c>
     </row>
